--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6270" windowHeight="3420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,16 +113,16 @@
     </r>
   </si>
   <si>
-    <t>C:\Users\rbhatia\Tauto\TestCases.xlsx</t>
-  </si>
-  <si>
-    <t>Microsoft Edge</t>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>G:\git\TAuto\TestCases.xlsm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>

--- a/Preferences.xlsx
+++ b/Preferences.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="6405"/>
+    <workbookView showHorizontalScroll="0" xWindow="0" yWindow="0" windowWidth="23970" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
     </r>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>G:\git\TAuto\TestCases.xlsm</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
